--- a/files/SM1/K3/K3-P64-T2.xlsx
+++ b/files/SM1/K3/K3-P64-T2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\K3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04314FD0-B96D-4236-8ED1-A9728F2FDD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9872A3A-6FC1-44F0-9201-A193B93C0D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3650" yWindow="3240" windowWidth="17720" windowHeight="8240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="1400" windowWidth="17720" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>ilmoittautua</t>
   </si>
@@ -181,16 +181,10 @@
     <t>to get</t>
   </si>
   <si>
-    <t>your (informal)</t>
-  </si>
-  <si>
     <t>personal information</t>
   </si>
   <si>
     <t>form</t>
-  </si>
-  <si>
-    <t>to be able to</t>
   </si>
   <si>
     <t>to help</t>
@@ -242,6 +236,30 @@
   </si>
   <si>
     <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sihteeri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secretary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>your (oral)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uudellen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -641,258 +659,274 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
